--- a/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/Cronograma GCM.xlsx
+++ b/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/Cronograma GCM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>% avance</t>
-  </si>
-  <si>
-    <t>Sin empezar</t>
   </si>
   <si>
     <t>Funcionalidades</t>
@@ -228,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,22 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -532,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -587,15 +569,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -616,22 +598,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -936,7 +909,7 @@
   <dimension ref="A1:AN53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D35"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1135,7 @@
       <c r="H10" s="35">
         <v>1</v>
       </c>
-      <c r="I10" s="69"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
@@ -1211,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="36"/>
-      <c r="J11" s="70"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
@@ -1259,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="36"/>
-      <c r="J12" s="70"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
@@ -1308,7 +1281,7 @@
       </c>
       <c r="I13" s="36"/>
       <c r="J13" s="32"/>
-      <c r="K13" s="70"/>
+      <c r="K13" s="67"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
@@ -1357,7 +1330,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
-      <c r="L14" s="70"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
@@ -1407,7 +1380,7 @@
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
-      <c r="N15" s="70"/>
+      <c r="N15" s="67"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
@@ -1491,7 +1464,7 @@
       <c r="K17" s="32"/>
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
-      <c r="N17" s="70"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
@@ -1541,7 +1514,7 @@
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="70"/>
+      <c r="P18" s="67"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
@@ -1590,7 +1563,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
-      <c r="Q19" s="70"/>
+      <c r="Q19" s="67"/>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
@@ -1660,9 +1633,11 @@
       <c r="F21" s="40">
         <v>3</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="19">
-        <v>0</v>
+      <c r="G21" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
@@ -1673,7 +1648,7 @@
       <c r="O21" s="32"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="70"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="32"/>
       <c r="T21" s="32"/>
       <c r="U21" s="32"/>
@@ -1706,11 +1681,11 @@
       <c r="F22" s="43">
         <v>2</v>
       </c>
-      <c r="G22" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0</v>
+      <c r="G22" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
@@ -1722,7 +1697,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
-      <c r="S22" s="70"/>
+      <c r="S22" s="67"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
@@ -1754,11 +1729,11 @@
       <c r="F23" s="43">
         <v>4</v>
       </c>
-      <c r="G23" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
+      <c r="G23" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="37">
+        <v>1</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -1770,8 +1745,8 @@
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
       <c r="X23" s="32"/>
@@ -1801,11 +1776,11 @@
       <c r="F24" s="43">
         <v>1</v>
       </c>
-      <c r="G24" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
+      <c r="G24" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -1818,7 +1793,7 @@
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
-      <c r="T24" s="70"/>
+      <c r="T24" s="67"/>
       <c r="U24" s="32"/>
       <c r="W24" s="32"/>
       <c r="X24" s="32"/>
@@ -1848,11 +1823,11 @@
       <c r="F25" s="46">
         <v>2</v>
       </c>
-      <c r="G25" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
+      <c r="G25" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="37">
+        <v>1</v>
       </c>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -1866,9 +1841,9 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="70"/>
+      <c r="U25" s="67"/>
       <c r="V25" s="32"/>
-      <c r="W25" s="71"/>
+      <c r="W25" s="68"/>
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
@@ -1932,7 +1907,7 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="19">
         <v>0</v>
       </c>
@@ -1949,7 +1924,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
       <c r="U27" s="32"/>
-      <c r="V27" s="70"/>
+      <c r="V27" s="67"/>
       <c r="X27" s="32"/>
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
@@ -1977,7 +1952,7 @@
       <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" s="66"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="19">
         <v>0</v>
       </c>
@@ -1996,8 +1971,8 @@
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
       <c r="AA28" s="32"/>
       <c r="AB28" s="32"/>
       <c r="AC28" s="32"/>
@@ -2022,7 +1997,7 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="66"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="19">
         <v>0</v>
       </c>
@@ -2039,7 +2014,7 @@
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
-      <c r="V29" s="70"/>
+      <c r="V29" s="67"/>
       <c r="W29" s="32"/>
       <c r="X29" s="32"/>
       <c r="Z29" s="32"/>
@@ -2067,7 +2042,7 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" s="66"/>
+      <c r="G30" s="64"/>
       <c r="H30" s="19">
         <v>0</v>
       </c>
@@ -2087,7 +2062,7 @@
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
       <c r="X30" s="32"/>
-      <c r="Y30" s="70"/>
+      <c r="Y30" s="67"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
       <c r="AB30" s="32"/>
@@ -2112,7 +2087,7 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" s="66"/>
+      <c r="G31" s="64"/>
       <c r="H31" s="19">
         <v>0</v>
       </c>
@@ -2129,9 +2104,9 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="71"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="68"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
       <c r="AB31" s="32"/>
@@ -2157,7 +2132,7 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" s="66"/>
+      <c r="G32" s="64"/>
       <c r="H32" s="19">
         <v>0</v>
       </c>
@@ -2177,8 +2152,8 @@
       <c r="V32" s="32"/>
       <c r="W32" s="32"/>
       <c r="X32" s="32"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
       <c r="AA32" s="32"/>
       <c r="AB32" s="32"/>
       <c r="AD32" s="32"/>
@@ -2202,7 +2177,7 @@
       <c r="F33">
         <v>2</v>
       </c>
-      <c r="G33" s="66"/>
+      <c r="G33" s="64"/>
       <c r="H33" s="19">
         <v>0</v>
       </c>
@@ -2223,7 +2198,7 @@
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
-      <c r="Z33" s="70"/>
+      <c r="Z33" s="67"/>
       <c r="AA33" s="32"/>
       <c r="AB33" s="32"/>
       <c r="AC33" s="32"/>
@@ -2247,7 +2222,7 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34" s="66"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="19">
         <v>0</v>
       </c>
@@ -2269,7 +2244,7 @@
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
       <c r="Z34" s="32"/>
-      <c r="AA34" s="70"/>
+      <c r="AA34" s="67"/>
       <c r="AB34" s="32"/>
       <c r="AC34" s="32"/>
       <c r="AD34" s="32"/>
@@ -2292,7 +2267,7 @@
       <c r="F35">
         <v>2</v>
       </c>
-      <c r="G35" s="67"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="19">
         <v>0</v>
       </c>
@@ -2314,7 +2289,7 @@
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
       <c r="Z35" s="32"/>
-      <c r="AA35" s="70"/>
+      <c r="AA35" s="67"/>
       <c r="AB35" s="32"/>
       <c r="AC35" s="32"/>
       <c r="AD35" s="32"/>
@@ -2373,7 +2348,7 @@
       <c r="F37" s="47">
         <v>3</v>
       </c>
-      <c r="G37" s="65"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="48">
         <v>0</v>
       </c>
@@ -2396,8 +2371,8 @@
       <c r="Y37" s="32"/>
       <c r="Z37" s="32"/>
       <c r="AA37" s="32"/>
-      <c r="AB37" s="70"/>
-      <c r="AC37" s="70"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
     </row>
@@ -2417,7 +2392,7 @@
       <c r="F38" s="49">
         <v>3</v>
       </c>
-      <c r="G38" s="66"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="50">
         <v>0</v>
       </c>
@@ -2442,8 +2417,8 @@
       <c r="AA38" s="32"/>
       <c r="AB38" s="32"/>
       <c r="AC38" s="32"/>
-      <c r="AD38" s="70"/>
-      <c r="AE38" s="70"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
     </row>
@@ -2463,7 +2438,7 @@
       <c r="F39" s="49">
         <v>2</v>
       </c>
-      <c r="G39" s="66"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="50">
         <v>0</v>
       </c>
@@ -2487,7 +2462,7 @@
       <c r="Z39" s="32"/>
       <c r="AA39" s="32"/>
       <c r="AB39" s="32"/>
-      <c r="AC39" s="70"/>
+      <c r="AC39" s="67"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
@@ -2509,7 +2484,7 @@
       <c r="F40" s="49">
         <v>2</v>
       </c>
-      <c r="G40" s="66"/>
+      <c r="G40" s="64"/>
       <c r="H40" s="50">
         <v>0</v>
       </c>
@@ -2535,7 +2510,7 @@
       <c r="AB40" s="32"/>
       <c r="AC40" s="32"/>
       <c r="AD40" s="32"/>
-      <c r="AE40" s="70"/>
+      <c r="AE40" s="67"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
     </row>
@@ -2555,7 +2530,7 @@
       <c r="F41" s="49">
         <v>4</v>
       </c>
-      <c r="G41" s="66"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="50">
         <v>0</v>
       </c>
@@ -2579,8 +2554,8 @@
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
       <c r="AB41" s="32"/>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="70"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
       <c r="AE41" s="32"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
@@ -2601,7 +2576,7 @@
       <c r="F42" s="49">
         <v>4</v>
       </c>
-      <c r="G42" s="66"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="50">
         <v>0</v>
       </c>
@@ -2627,8 +2602,8 @@
       <c r="AB42" s="32"/>
       <c r="AC42" s="32"/>
       <c r="AD42" s="32"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="67"/>
       <c r="AG42" s="32"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
@@ -2647,7 +2622,7 @@
       <c r="F43" s="49">
         <v>1</v>
       </c>
-      <c r="G43" s="66"/>
+      <c r="G43" s="64"/>
       <c r="H43" s="50">
         <v>0</v>
       </c>
@@ -2674,7 +2649,7 @@
       <c r="AC43" s="32"/>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
-      <c r="AF43" s="70"/>
+      <c r="AF43" s="67"/>
       <c r="AG43" s="32"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
@@ -2693,7 +2668,7 @@
       <c r="F44" s="49">
         <v>1</v>
       </c>
-      <c r="G44" s="66"/>
+      <c r="G44" s="64"/>
       <c r="H44" s="50">
         <v>0</v>
       </c>
@@ -2720,7 +2695,7 @@
       <c r="AC44" s="32"/>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
-      <c r="AF44" s="70"/>
+      <c r="AF44" s="67"/>
       <c r="AG44" s="32"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
@@ -2739,7 +2714,7 @@
       <c r="F45" s="51">
         <v>1</v>
       </c>
-      <c r="G45" s="67"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="52">
         <v>0</v>
       </c>
@@ -2767,55 +2742,55 @@
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
       <c r="AF45" s="32"/>
-      <c r="AG45" s="70"/>
+      <c r="AG45" s="67"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="70">
+        <v>1</v>
+      </c>
+      <c r="B49" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="73">
-        <v>1</v>
-      </c>
-      <c r="B49" s="73" t="s">
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="70">
+        <v>2</v>
+      </c>
+      <c r="B50" s="70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="73">
-        <v>2</v>
-      </c>
-      <c r="B50" s="73" t="s">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="70">
+        <v>3</v>
+      </c>
+      <c r="B51" s="70" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="73">
-        <v>3</v>
-      </c>
-      <c r="B51" s="73" t="s">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="70">
+        <v>4</v>
+      </c>
+      <c r="B52" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="73">
-        <v>4</v>
-      </c>
-      <c r="B52" s="73" t="s">
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="70">
+        <v>5</v>
+      </c>
+      <c r="B53" s="70" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="73">
-        <v>5</v>
-      </c>
-      <c r="B53" s="73" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/Cronograma GCM.xlsx
+++ b/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/Cronograma GCM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>El sistema elaborará un reporte de la lista de métricas priorizadas para que el usuario las tome en cuenta en el desarrollo de su proyecto</t>
+  </si>
+  <si>
+    <t>En progreso</t>
   </si>
 </sst>
 </file>
@@ -225,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +265,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFC0202"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -615,6 +631,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="12">
-        <v>0.01</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="30" x14ac:dyDescent="0.25">
@@ -1907,9 +1929,11 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="19">
-        <v>0</v>
+      <c r="G27" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="71">
+        <v>0.8</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -1938,23 +1962,25 @@
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D28" s="14">
-        <v>44044</v>
+        <v>44037</v>
       </c>
       <c r="E28" s="30">
-        <v>44046</v>
+        <v>44038</v>
       </c>
       <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="19">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="37">
+        <v>1</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -1969,10 +1995,10 @@
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
       <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
+      <c r="V28" s="67"/>
       <c r="W28" s="32"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="67"/>
+      <c r="X28" s="32"/>
+      <c r="Z28" s="32"/>
       <c r="AA28" s="32"/>
       <c r="AB28" s="32"/>
       <c r="AC28" s="32"/>
@@ -1983,23 +2009,25 @@
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D29" s="14">
         <v>44037</v>
       </c>
       <c r="E29" s="30">
-        <v>44038</v>
+        <v>44040</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="19">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="37">
+        <v>1</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -2015,8 +2043,9 @@
       <c r="T29" s="32"/>
       <c r="U29" s="32"/>
       <c r="V29" s="67"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="32"/>
       <c r="AB29" s="32"/>
@@ -2028,19 +2057,19 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D30" s="14">
+        <v>44044</v>
+      </c>
+      <c r="E30" s="30">
         <v>44046</v>
       </c>
-      <c r="E30" s="30">
-        <v>44047</v>
-      </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="19">
@@ -2061,11 +2090,11 @@
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
+      <c r="X30" s="67"/>
       <c r="Y30" s="67"/>
-      <c r="Z30" s="32"/>
       <c r="AA30" s="32"/>
       <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
@@ -2073,19 +2102,19 @@
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D31" s="14">
-        <v>44037</v>
+        <v>44046</v>
       </c>
       <c r="E31" s="30">
-        <v>44040</v>
+        <v>44047</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="64"/>
       <c r="H31" s="19">
@@ -2104,9 +2133,10 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="32"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="68"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="67"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="32"/>
       <c r="AB31" s="32"/>
@@ -2378,19 +2408,19 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D38" s="42">
-        <v>44062</v>
+        <v>44058</v>
       </c>
       <c r="E38" s="54">
-        <v>44064</v>
+        <v>44059</v>
       </c>
       <c r="F38" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="50">
@@ -2416,27 +2446,27 @@
       <c r="Z38" s="32"/>
       <c r="AA38" s="32"/>
       <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D39" s="42">
         <v>44058</v>
       </c>
       <c r="E39" s="54">
-        <v>44059</v>
+        <v>44061</v>
       </c>
       <c r="F39" s="49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="50">
@@ -2463,26 +2493,26 @@
       <c r="AA39" s="32"/>
       <c r="AB39" s="32"/>
       <c r="AC39" s="67"/>
-      <c r="AD39" s="32"/>
+      <c r="AD39" s="67"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B40" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D40" s="42">
+        <v>44062</v>
+      </c>
+      <c r="E40" s="54">
         <v>44064</v>
       </c>
-      <c r="E40" s="54">
-        <v>44065</v>
-      </c>
       <c r="F40" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="64"/>
       <c r="H40" s="50">
@@ -2509,26 +2539,26 @@
       <c r="AA40" s="32"/>
       <c r="AB40" s="32"/>
       <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
+      <c r="AD40" s="67"/>
       <c r="AE40" s="67"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D41" s="42">
-        <v>44058</v>
+        <v>44064</v>
       </c>
       <c r="E41" s="54">
-        <v>44061</v>
+        <v>44065</v>
       </c>
       <c r="F41" s="49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G41" s="64"/>
       <c r="H41" s="50">
@@ -2554,9 +2584,9 @@
       <c r="Z41" s="32"/>
       <c r="AA41" s="32"/>
       <c r="AB41" s="32"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="67"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
     </row>
@@ -2767,6 +2797,9 @@
       <c r="B50" s="70" t="s">
         <v>60</v>
       </c>
+      <c r="G50">
+        <v>32</v>
+      </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="70">

--- a/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/Cronograma GCM.xlsx
+++ b/desarrollo/SW_ModeloDeCalidad-ISO9126/7. Gestión/Cronograma GCM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DUDU\UNMSM\GESTION_DE_LA_CONFIGURACION_Y_MANTENIMIENTO\PROYECTO\SISTEMA_WEB_ISO9126\desarrollo\SW_ModeloDeCalidad-ISO9126\7. Gestión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DUDU\UNMSM\GESTION_DE_LA_CONFIGURACION_Y_MANTENIMIENTO\PROYECTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>En progreso</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +264,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -488,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -632,10 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -930,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,11 +1922,11 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="71">
-        <v>0.8</v>
+      <c r="G27" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="37">
+        <v>1</v>
       </c>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2071,9 +2064,11 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="64"/>
+      <c r="G30" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="H30" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -2116,9 +2111,11 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="64"/>
+      <c r="G31" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -2162,9 +2159,11 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" s="64"/>
+      <c r="G32" s="71" t="s">
+        <v>64</v>
+      </c>
       <c r="H32" s="19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
@@ -2808,6 +2807,9 @@
       <c r="B51" s="70" t="s">
         <v>61</v>
       </c>
+      <c r="I51" t="s">
+        <v>65</v>
+      </c>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
